--- a/Matrix.xlsx
+++ b/Matrix.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="83">
   <si>
     <t>Stereo_FLAC_16Bit_88.2KHz_10Sec.flac</t>
   </si>
@@ -265,6 +265,9 @@
   </si>
   <si>
     <t>48.0</t>
+  </si>
+  <si>
+    <t>MP3</t>
   </si>
 </sst>
 </file>
@@ -669,7 +672,7 @@
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -708,7 +711,7 @@
         <v>40</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1</v>
@@ -1837,10 +1840,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Matrix.xlsx
+++ b/Matrix.xlsx
@@ -672,7 +672,7 @@
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Matrix.xlsx
+++ b/Matrix.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$57</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="82">
   <si>
     <t>Stereo_FLAC_16Bit_88.2KHz_10Sec.flac</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>Mono_M4A_16Bit_88.2KHz</t>
-  </si>
-  <si>
-    <t>Mp3</t>
   </si>
   <si>
     <t>Mono_M4A_16Bit_96KHz</t>
@@ -349,7 +346,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -366,6 +363,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -672,7 +670,7 @@
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -688,30 +686,30 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>82</v>
+        <v>39</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1</v>
@@ -723,7 +721,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -743,7 +741,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -751,7 +749,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>1</v>
@@ -763,15 +761,15 @@
         <v>3</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>6</v>
@@ -783,72 +781,72 @@
         <v>3</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="C6" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="3">
         <v>16</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="C7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" s="3">
         <v>16</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="3">
         <v>16</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>0</v>
@@ -857,18 +855,18 @@
         <v>6</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" s="3">
         <v>16</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>5</v>
@@ -877,118 +875,118 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" s="3">
         <v>16</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" s="3">
         <v>16</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" s="3">
         <v>24</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" s="3">
         <v>24</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14" s="3">
         <v>24</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15" s="3">
         <v>24</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>0</v>
@@ -997,18 +995,18 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E16" s="3">
         <v>24</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>5</v>
@@ -1017,118 +1015,118 @@
         <v>6</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E17" s="3">
         <v>24</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E18" s="3">
         <v>16</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E19" s="3">
         <v>16</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E20" s="3">
         <v>16</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E21" s="3">
         <v>16</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E22" s="3">
         <v>16</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>0</v>
@@ -1137,18 +1135,18 @@
         <v>6</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E23" s="3">
         <v>16</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>5</v>
@@ -1157,118 +1155,118 @@
         <v>1</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E24" s="3">
         <v>24</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E25" s="3">
         <v>24</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E26" s="3">
         <v>24</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E27" s="3">
         <v>24</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E28" s="3">
         <v>24</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E29" s="3">
         <v>24</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>0</v>
@@ -1283,12 +1281,12 @@
         <v>3</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>5</v>
@@ -1303,15 +1301,15 @@
         <v>3</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>1</v>
@@ -1323,15 +1321,15 @@
         <v>3</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>6</v>
@@ -1343,72 +1341,72 @@
         <v>3</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E34" s="3">
         <v>16</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E35" s="3">
         <v>16</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E36" s="3">
         <v>16</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>0</v>
@@ -1417,18 +1415,18 @@
         <v>6</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E37" s="3">
         <v>16</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>5</v>
@@ -1437,118 +1435,118 @@
         <v>1</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E38" s="3">
         <v>16</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E39" s="3">
         <v>16</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E40" s="3">
         <v>24</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E41" s="3">
         <v>24</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E42" s="3">
         <v>24</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E43" s="3">
         <v>24</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>0</v>
@@ -1557,18 +1555,18 @@
         <v>1</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E44" s="3">
         <v>24</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>5</v>
@@ -1577,118 +1575,118 @@
         <v>6</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E45" s="3">
         <v>24</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E46" s="3">
         <v>16</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E47" s="3">
         <v>16</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E48" s="3">
         <v>16</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E49" s="3">
         <v>16</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E50" s="3">
         <v>16</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>0</v>
@@ -1697,18 +1695,18 @@
         <v>6</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E51" s="3">
         <v>16</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>5</v>
@@ -1717,117 +1715,117 @@
         <v>1</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E52" s="3">
         <v>24</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E53" s="3">
         <v>24</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E54" s="3">
         <v>24</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E55" s="3">
         <v>24</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E56" s="3">
         <v>24</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E57" s="3">
         <v>24</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1"/>
+  <autoFilter ref="A1:F57"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
@@ -1848,7 +1846,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Matrix.xlsx
+++ b/Matrix.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$58</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="82">
   <si>
     <t>Stereo_FLAC_16Bit_88.2KHz_10Sec.flac</t>
   </si>
@@ -667,10 +667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -706,19 +706,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="E2" s="3">
+        <v>16</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>73</v>
@@ -726,13 +726,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
+        <v>39</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>2</v>
@@ -741,18 +741,18 @@
         <v>3</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>2</v>
@@ -761,18 +761,18 @@
         <v>3</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>2</v>
@@ -781,38 +781,38 @@
         <v>3</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="3">
-        <v>16</v>
+        <v>2</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>12</v>
@@ -821,18 +821,18 @@
         <v>16</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>12</v>
@@ -841,18 +841,18 @@
         <v>16</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>12</v>
@@ -861,18 +861,18 @@
         <v>16</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>12</v>
@@ -881,18 +881,18 @@
         <v>16</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>12</v>
@@ -901,38 +901,38 @@
         <v>16</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="3">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>12</v>
@@ -941,18 +941,18 @@
         <v>24</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>12</v>
@@ -961,18 +961,18 @@
         <v>24</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>12</v>
@@ -981,18 +981,18 @@
         <v>24</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>12</v>
@@ -1001,18 +1001,18 @@
         <v>24</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>12</v>
@@ -1021,38 +1021,38 @@
         <v>24</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E18" s="3">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>27</v>
@@ -1061,18 +1061,18 @@
         <v>16</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>27</v>
@@ -1081,18 +1081,18 @@
         <v>16</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>27</v>
@@ -1101,18 +1101,18 @@
         <v>16</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>27</v>
@@ -1121,18 +1121,18 @@
         <v>16</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>27</v>
@@ -1141,38 +1141,38 @@
         <v>16</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E24" s="3">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>27</v>
@@ -1181,18 +1181,18 @@
         <v>24</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>27</v>
@@ -1201,18 +1201,18 @@
         <v>24</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>27</v>
@@ -1221,18 +1221,18 @@
         <v>24</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>27</v>
@@ -1241,18 +1241,18 @@
         <v>24</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>27</v>
@@ -1261,38 +1261,38 @@
         <v>24</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>3</v>
+        <v>27</v>
+      </c>
+      <c r="E30" s="3">
+        <v>24</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>2</v>
@@ -1301,18 +1301,18 @@
         <v>3</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>2</v>
@@ -1321,18 +1321,18 @@
         <v>3</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>2</v>
@@ -1341,38 +1341,38 @@
         <v>3</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" s="3">
-        <v>16</v>
+        <v>2</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>12</v>
@@ -1381,18 +1381,18 @@
         <v>16</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>12</v>
@@ -1401,18 +1401,18 @@
         <v>16</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>12</v>
@@ -1421,18 +1421,18 @@
         <v>16</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>12</v>
@@ -1441,18 +1441,18 @@
         <v>16</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>12</v>
@@ -1461,38 +1461,38 @@
         <v>16</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E40" s="3">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>12</v>
@@ -1501,18 +1501,18 @@
         <v>24</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>12</v>
@@ -1521,18 +1521,18 @@
         <v>24</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>12</v>
@@ -1541,18 +1541,18 @@
         <v>24</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>12</v>
@@ -1561,18 +1561,18 @@
         <v>24</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>12</v>
@@ -1581,38 +1581,38 @@
         <v>24</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E46" s="3">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>27</v>
@@ -1621,18 +1621,18 @@
         <v>16</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>27</v>
@@ -1641,18 +1641,18 @@
         <v>16</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>27</v>
@@ -1661,18 +1661,18 @@
         <v>16</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>27</v>
@@ -1681,18 +1681,18 @@
         <v>16</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>27</v>
@@ -1701,38 +1701,38 @@
         <v>16</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E52" s="3">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>27</v>
@@ -1741,18 +1741,18 @@
         <v>24</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>27</v>
@@ -1761,18 +1761,18 @@
         <v>24</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>27</v>
@@ -1781,18 +1781,18 @@
         <v>24</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>27</v>
@@ -1801,35 +1801,55 @@
         <v>24</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E57" s="3">
+        <v>24</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E57" s="3">
-        <v>24</v>
-      </c>
-      <c r="F57" s="5" t="s">
+      <c r="B58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E58" s="3">
+        <v>24</v>
+      </c>
+      <c r="F58" s="5" t="s">
         <v>78</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F57"/>
+  <autoFilter ref="A1:F58"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="F2" numberStoredAsText="1"/>
+    <ignoredError sqref="F3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/Matrix.xlsx
+++ b/Matrix.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="20115" windowHeight="6735"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="83">
   <si>
     <t>Stereo_FLAC_16Bit_88.2KHz_10Sec.flac</t>
   </si>
@@ -265,6 +265,9 @@
   </si>
   <si>
     <t>MP3</t>
+  </si>
+  <si>
+    <t>Mono_M4A_16Bit_44.1KHz</t>
   </si>
 </sst>
 </file>
@@ -670,7 +673,7 @@
   <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -726,7 +729,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>0</v>
